--- a/Code/Results/Cases/Case_4_210/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_210/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9994385317079287</v>
+        <v>1.026300580174367</v>
       </c>
       <c r="D2">
-        <v>1.017751485845962</v>
+        <v>1.031716926897907</v>
       </c>
       <c r="E2">
-        <v>1.007617857528546</v>
+        <v>1.029929704889638</v>
       </c>
       <c r="F2">
-        <v>0.9762639705591964</v>
+        <v>1.02481474348338</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043144930748347</v>
+        <v>1.03423026287964</v>
       </c>
       <c r="J2">
-        <v>1.021636049174712</v>
+        <v>1.031464788390563</v>
       </c>
       <c r="K2">
-        <v>1.028968932046543</v>
+        <v>1.034524239319187</v>
       </c>
       <c r="L2">
-        <v>1.01897207396627</v>
+        <v>1.032742189863812</v>
       </c>
       <c r="M2">
-        <v>0.9880641990455642</v>
+        <v>1.02764214054328</v>
       </c>
       <c r="N2">
-        <v>1.011080289807192</v>
+        <v>1.01450641031337</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003890788470308</v>
+        <v>1.027209720616018</v>
       </c>
       <c r="D3">
-        <v>1.021099241172414</v>
+        <v>1.032412598999369</v>
       </c>
       <c r="E3">
-        <v>1.011564452697088</v>
+        <v>1.030786216798687</v>
       </c>
       <c r="F3">
-        <v>0.9833935923131283</v>
+        <v>1.026358023263349</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04467998367859</v>
+        <v>1.034473475219142</v>
       </c>
       <c r="J3">
-        <v>1.024275945717155</v>
+        <v>1.03201383797656</v>
       </c>
       <c r="K3">
-        <v>1.03146908747514</v>
+        <v>1.035028836042077</v>
       </c>
       <c r="L3">
-        <v>1.022051472005058</v>
+        <v>1.033406820359576</v>
       </c>
       <c r="M3">
-        <v>0.9942434593854762</v>
+        <v>1.028990591554344</v>
       </c>
       <c r="N3">
-        <v>1.011967519708339</v>
+        <v>1.014689793002341</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006706768878757</v>
+        <v>1.027797934551339</v>
       </c>
       <c r="D4">
-        <v>1.023218003618985</v>
+        <v>1.032862567600095</v>
       </c>
       <c r="E4">
-        <v>1.014065409094244</v>
+        <v>1.031340727116452</v>
       </c>
       <c r="F4">
-        <v>0.9878907886824356</v>
+        <v>1.027356556255189</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045638885537128</v>
+        <v>1.034629400442383</v>
       </c>
       <c r="J4">
-        <v>1.025940456943087</v>
+        <v>1.032368436995784</v>
       </c>
       <c r="K4">
-        <v>1.033044056559577</v>
+        <v>1.035354492521838</v>
       </c>
       <c r="L4">
-        <v>1.0239969899542</v>
+        <v>1.033836532024417</v>
       </c>
       <c r="M4">
-        <v>0.9981375922284016</v>
+        <v>1.029862577667189</v>
       </c>
       <c r="N4">
-        <v>1.012526831851955</v>
+        <v>1.014808183708705</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007875667016738</v>
+        <v>1.028045205094899</v>
       </c>
       <c r="D5">
-        <v>1.024097772247484</v>
+        <v>1.033051691250667</v>
       </c>
       <c r="E5">
-        <v>1.015104666660077</v>
+        <v>1.031573912240471</v>
       </c>
       <c r="F5">
-        <v>0.9897550236604361</v>
+        <v>1.027776327152223</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04603401153375</v>
+        <v>1.034694604259561</v>
       </c>
       <c r="J5">
-        <v>1.026630131801443</v>
+        <v>1.032517349293383</v>
       </c>
       <c r="K5">
-        <v>1.033696270395765</v>
+        <v>1.03549119445</v>
       </c>
       <c r="L5">
-        <v>1.024804029628998</v>
+        <v>1.034017099127604</v>
       </c>
       <c r="M5">
-        <v>0.9997509408240032</v>
+        <v>1.030229032686768</v>
       </c>
       <c r="N5">
-        <v>1.012758548434777</v>
+        <v>1.014857890408499</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008071070950438</v>
+        <v>1.028086722049632</v>
       </c>
       <c r="D6">
-        <v>1.024244857884953</v>
+        <v>1.033083443396179</v>
       </c>
       <c r="E6">
-        <v>1.015278463984696</v>
+        <v>1.031613069082482</v>
       </c>
       <c r="F6">
-        <v>0.9900665289803087</v>
+        <v>1.027846807950149</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046099892556323</v>
+        <v>1.034705531906078</v>
       </c>
       <c r="J6">
-        <v>1.026745350174898</v>
+        <v>1.032542342872658</v>
       </c>
       <c r="K6">
-        <v>1.033805208818186</v>
+        <v>1.035514135332167</v>
       </c>
       <c r="L6">
-        <v>1.024938909985583</v>
+        <v>1.03404741222581</v>
       </c>
       <c r="M6">
-        <v>1.000020470486917</v>
+        <v>1.030290554715623</v>
       </c>
       <c r="N6">
-        <v>1.012797257607003</v>
+        <v>1.01486623258268</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006722445684063</v>
+        <v>1.027801238649869</v>
       </c>
       <c r="D7">
-        <v>1.023229801676372</v>
+        <v>1.032865094849873</v>
       </c>
       <c r="E7">
-        <v>1.014079342803089</v>
+        <v>1.031343842676937</v>
       </c>
       <c r="F7">
-        <v>0.9879158005602119</v>
+        <v>1.027362165296957</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045644196350406</v>
+        <v>1.034630273063223</v>
       </c>
       <c r="J7">
-        <v>1.025949711567594</v>
+        <v>1.032370427402417</v>
       </c>
       <c r="K7">
-        <v>1.033052809946698</v>
+        <v>1.035356319941809</v>
       </c>
       <c r="L7">
-        <v>1.024007815790377</v>
+        <v>1.033838945099955</v>
       </c>
       <c r="M7">
-        <v>0.998159241628132</v>
+        <v>1.029867474754633</v>
       </c>
       <c r="N7">
-        <v>1.012529941336506</v>
+        <v>1.014808848146597</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000957011627787</v>
+        <v>1.02660784098305</v>
       </c>
       <c r="D8">
-        <v>1.018892952470024</v>
+        <v>1.031952068996278</v>
       </c>
       <c r="E8">
-        <v>1.008962852486458</v>
+        <v>1.030219106846783</v>
       </c>
       <c r="F8">
-        <v>0.9786983959807192</v>
+        <v>1.025336320026476</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043670973555974</v>
+        <v>1.034312757650815</v>
       </c>
       <c r="J8">
-        <v>1.022537489388849</v>
+        <v>1.031650481533599</v>
       </c>
       <c r="K8">
-        <v>1.029822946406706</v>
+        <v>1.034694946275553</v>
       </c>
       <c r="L8">
-        <v>1.02002276965659</v>
+        <v>1.032966876936018</v>
       </c>
       <c r="M8">
-        <v>0.9901748571647555</v>
+        <v>1.028097972656346</v>
       </c>
       <c r="N8">
-        <v>1.011383270130164</v>
+        <v>1.014568441243381</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9902711790044222</v>
+        <v>1.02450445856448</v>
       </c>
       <c r="D9">
-        <v>1.010867952975959</v>
+        <v>1.03034186478378</v>
       </c>
       <c r="E9">
-        <v>0.99951950143466</v>
+        <v>1.028239415486766</v>
       </c>
       <c r="F9">
-        <v>0.9614970036342539</v>
+        <v>1.02176574847337</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039919240885935</v>
+        <v>1.033742160415935</v>
       </c>
       <c r="J9">
-        <v>1.016172227324534</v>
+        <v>1.030376694558871</v>
       </c>
       <c r="K9">
-        <v>1.023787132165062</v>
+        <v>1.03352301127829</v>
       </c>
       <c r="L9">
-        <v>1.01262037920621</v>
+        <v>1.031427518869811</v>
       </c>
       <c r="M9">
-        <v>0.975247263463406</v>
+        <v>1.024975470274806</v>
       </c>
       <c r="N9">
-        <v>1.009243578331064</v>
+        <v>1.014142747698579</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9827492054004838</v>
+        <v>1.023101891385902</v>
       </c>
       <c r="D10">
-        <v>1.005231030322588</v>
+        <v>1.029267529235544</v>
       </c>
       <c r="E10">
-        <v>0.9929010690675906</v>
+        <v>1.026921145546334</v>
       </c>
       <c r="F10">
-        <v>0.9492768821424773</v>
+        <v>1.019384538325242</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037216136670276</v>
+        <v>1.033354310079525</v>
       </c>
       <c r="J10">
-        <v>1.011664379077831</v>
+        <v>1.029524041164258</v>
       </c>
       <c r="K10">
-        <v>1.019506474879288</v>
+        <v>1.032737355858804</v>
       </c>
       <c r="L10">
-        <v>1.007399690847419</v>
+        <v>1.030399498527726</v>
       </c>
       <c r="M10">
-        <v>0.9646266070161577</v>
+        <v>1.022890571668311</v>
       </c>
       <c r="N10">
-        <v>1.007728087969966</v>
+        <v>1.013857566590638</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9793867024800653</v>
+        <v>1.022494489052901</v>
       </c>
       <c r="D11">
-        <v>1.002714792655511</v>
+        <v>1.028802130752149</v>
       </c>
       <c r="E11">
-        <v>0.9899498090276229</v>
+        <v>1.026350685096326</v>
       </c>
       <c r="F11">
-        <v>0.9437794071018621</v>
+        <v>1.018353182203156</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035993441246862</v>
+        <v>1.033184600079311</v>
       </c>
       <c r="J11">
-        <v>1.009642893124066</v>
+        <v>1.029154011060142</v>
       </c>
       <c r="K11">
-        <v>1.017585692923074</v>
+        <v>1.03239612473031</v>
       </c>
       <c r="L11">
-        <v>1.005063779074487</v>
+        <v>1.02995393278361</v>
       </c>
       <c r="M11">
-        <v>0.9598455946882377</v>
+        <v>1.021986962411386</v>
       </c>
       <c r="N11">
-        <v>1.007048508943679</v>
+        <v>1.013733751923973</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9781208424238338</v>
+        <v>1.022268860320855</v>
       </c>
       <c r="D12">
-        <v>1.001768128109783</v>
+        <v>1.028629230781779</v>
       </c>
       <c r="E12">
-        <v>0.9888399113565921</v>
+        <v>1.026138844826081</v>
       </c>
       <c r="F12">
-        <v>0.941703778687169</v>
+        <v>1.017970043064049</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035531020882318</v>
+        <v>1.033121296584022</v>
       </c>
       <c r="J12">
-        <v>1.008880924842027</v>
+        <v>1.029016441229827</v>
       </c>
       <c r="K12">
-        <v>1.016861531793435</v>
+        <v>1.032269220532229</v>
       </c>
       <c r="L12">
-        <v>1.004184090513456</v>
+        <v>1.029788365788502</v>
       </c>
       <c r="M12">
-        <v>0.9580400753500427</v>
+        <v>1.021651191188603</v>
       </c>
       <c r="N12">
-        <v>1.006792361049873</v>
+        <v>1.013687712170366</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.978393155088812</v>
+        <v>1.022317259017242</v>
       </c>
       <c r="D13">
-        <v>1.001971746692998</v>
+        <v>1.028666319774775</v>
       </c>
       <c r="E13">
-        <v>0.9890786209073013</v>
+        <v>1.026184282830293</v>
       </c>
       <c r="F13">
-        <v>0.9421505754800339</v>
+        <v>1.018052229958919</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035630592260194</v>
+        <v>1.033134887419447</v>
       </c>
       <c r="J13">
-        <v>1.009044882940135</v>
+        <v>1.029045956046924</v>
       </c>
       <c r="K13">
-        <v>1.017017361088517</v>
+        <v>1.032296448961303</v>
       </c>
       <c r="L13">
-        <v>1.004373343095141</v>
+        <v>1.029823883369182</v>
       </c>
       <c r="M13">
-        <v>0.9584287457305509</v>
+        <v>1.021723221244551</v>
       </c>
       <c r="N13">
-        <v>1.006847477700627</v>
+        <v>1.013697590092449</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9792824167008503</v>
+        <v>1.022475838767005</v>
       </c>
       <c r="D14">
-        <v>1.002636790538162</v>
+        <v>1.028787839401436</v>
       </c>
       <c r="E14">
-        <v>0.9898583484562671</v>
+        <v>1.026333173208009</v>
       </c>
       <c r="F14">
-        <v>0.9436085373288708</v>
+        <v>1.018321512807426</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035955388377622</v>
+        <v>1.033179372811647</v>
       </c>
       <c r="J14">
-        <v>1.009580138960469</v>
+        <v>1.029142642029016</v>
       </c>
       <c r="K14">
-        <v>1.017526055409454</v>
+        <v>1.032385637966938</v>
       </c>
       <c r="L14">
-        <v>1.004991313439474</v>
+        <v>1.029940248270627</v>
       </c>
       <c r="M14">
-        <v>0.9596969685123343</v>
+        <v>1.021959210149633</v>
       </c>
       <c r="N14">
-        <v>1.007027412905385</v>
+        <v>1.013729947272775</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9798280512045991</v>
+        <v>1.022573543326812</v>
       </c>
       <c r="D15">
-        <v>1.003044931215274</v>
+        <v>1.028862707657605</v>
       </c>
       <c r="E15">
-        <v>0.9903369269484198</v>
+        <v>1.026424916663282</v>
       </c>
       <c r="F15">
-        <v>0.9445022959213956</v>
+        <v>1.018487420375787</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036154398970964</v>
+        <v>1.033206746529832</v>
       </c>
       <c r="J15">
-        <v>1.009908436778534</v>
+        <v>1.029202196994968</v>
       </c>
       <c r="K15">
-        <v>1.017838042480702</v>
+        <v>1.032440569618296</v>
       </c>
       <c r="L15">
-        <v>1.005370449275287</v>
+        <v>1.030011936040611</v>
       </c>
       <c r="M15">
-        <v>0.9604743629965162</v>
+        <v>1.022104593254164</v>
       </c>
       <c r="N15">
-        <v>1.007137777034081</v>
+        <v>1.013749877044022</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9829700558900267</v>
+        <v>1.02314220094293</v>
       </c>
       <c r="D16">
-        <v>1.005396378233994</v>
+        <v>1.029298411935327</v>
       </c>
       <c r="E16">
-        <v>0.9930950651046063</v>
+        <v>1.026959012710122</v>
       </c>
       <c r="F16">
-        <v>0.9496371692119668</v>
+        <v>1.01945297969681</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03729614836807</v>
+        <v>1.033365535919677</v>
       </c>
       <c r="J16">
-        <v>1.011797019007164</v>
+        <v>1.029548581437951</v>
       </c>
       <c r="K16">
-        <v>1.019632484738327</v>
+        <v>1.032759980398403</v>
       </c>
       <c r="L16">
-        <v>1.007553071537103</v>
+        <v>1.030429060279115</v>
       </c>
       <c r="M16">
-        <v>0.9649398806380471</v>
+        <v>1.022950523219527</v>
       </c>
       <c r="N16">
-        <v>1.007772679534227</v>
+        <v>1.013865776823838</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9849120212449277</v>
+        <v>1.023498882872783</v>
       </c>
       <c r="D17">
-        <v>1.006850719610634</v>
+        <v>1.029571663367648</v>
       </c>
       <c r="E17">
-        <v>0.9948017344819006</v>
+        <v>1.027294133333068</v>
       </c>
       <c r="F17">
-        <v>0.9528011789155169</v>
+        <v>1.020058571299832</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037998076071361</v>
+        <v>1.033464666910215</v>
       </c>
       <c r="J17">
-        <v>1.012962615491292</v>
+        <v>1.02976563812333</v>
       </c>
       <c r="K17">
-        <v>1.02073968774306</v>
+        <v>1.032960060709901</v>
       </c>
       <c r="L17">
-        <v>1.008901526183499</v>
+        <v>1.030690597192778</v>
       </c>
       <c r="M17">
-        <v>0.9676906797198596</v>
+        <v>1.023480925714934</v>
       </c>
       <c r="N17">
-        <v>1.008164538934106</v>
+        <v>1.013938389521027</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9860346382296501</v>
+        <v>1.023706921560327</v>
       </c>
       <c r="D18">
-        <v>1.007691786019387</v>
+        <v>1.029731026585086</v>
       </c>
       <c r="E18">
-        <v>0.9957890227079635</v>
+        <v>1.027489638161862</v>
       </c>
       <c r="F18">
-        <v>0.9546270030213508</v>
+        <v>1.020411776371524</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038402488464308</v>
+        <v>1.033522317729044</v>
       </c>
       <c r="J18">
-        <v>1.013635823772713</v>
+        <v>1.029892163971221</v>
       </c>
       <c r="K18">
-        <v>1.021379057048019</v>
+        <v>1.03307666409742</v>
       </c>
       <c r="L18">
-        <v>1.009680841156569</v>
+        <v>1.030843106133515</v>
       </c>
       <c r="M18">
-        <v>0.969277760460958</v>
+        <v>1.023790220355712</v>
       </c>
       <c r="N18">
-        <v>1.008390865182142</v>
+        <v>1.013980711499313</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9864157386579858</v>
+        <v>1.023777856052041</v>
       </c>
       <c r="D19">
-        <v>1.007977362215931</v>
+        <v>1.029785361966393</v>
       </c>
       <c r="E19">
-        <v>0.9961242985354751</v>
+        <v>1.027556306125847</v>
       </c>
       <c r="F19">
-        <v>0.9552462982365091</v>
+        <v>1.020532205901381</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038539544640336</v>
+        <v>1.033541946229415</v>
       </c>
       <c r="J19">
-        <v>1.013864258688348</v>
+        <v>1.02993529251083</v>
       </c>
       <c r="K19">
-        <v>1.02159598975392</v>
+        <v>1.033116405863332</v>
       </c>
       <c r="L19">
-        <v>1.009945364019517</v>
+        <v>1.030895100767443</v>
       </c>
       <c r="M19">
-        <v>0.9698160250781902</v>
+        <v>1.023895668395053</v>
       </c>
       <c r="N19">
-        <v>1.008467662978006</v>
+        <v>1.013995136809525</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9847047184674033</v>
+        <v>1.023460615090451</v>
       </c>
       <c r="D20">
-        <v>1.006695434795519</v>
+        <v>1.029542348111634</v>
       </c>
       <c r="E20">
-        <v>0.9946194772063197</v>
+        <v>1.027258174477418</v>
       </c>
       <c r="F20">
-        <v>0.9524637654442294</v>
+        <v>1.019993599811629</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03792328693234</v>
+        <v>1.033454048740002</v>
       </c>
       <c r="J20">
-        <v>1.012838251840912</v>
+        <v>1.029742358234106</v>
       </c>
       <c r="K20">
-        <v>1.020621565952877</v>
+        <v>1.032938604336539</v>
       </c>
       <c r="L20">
-        <v>1.008757601053868</v>
+        <v>1.030662541009923</v>
       </c>
       <c r="M20">
-        <v>0.9673973617809253</v>
+        <v>1.023424026874932</v>
       </c>
       <c r="N20">
-        <v>1.00812272915848</v>
+        <v>1.01393060215281</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9790210259983115</v>
+        <v>1.022429141328959</v>
       </c>
       <c r="D21">
-        <v>1.002441289440704</v>
+        <v>1.02875205573201</v>
       </c>
       <c r="E21">
-        <v>0.9896291225121513</v>
+        <v>1.026289327206773</v>
       </c>
       <c r="F21">
-        <v>0.9431801548931028</v>
+        <v>1.018242217081481</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035859975428815</v>
+        <v>1.033166280305414</v>
       </c>
       <c r="J21">
-        <v>1.009422831290805</v>
+        <v>1.029114173846117</v>
       </c>
       <c r="K21">
-        <v>1.017376557982881</v>
+        <v>1.032359378327175</v>
       </c>
       <c r="L21">
-        <v>1.004809674625845</v>
+        <v>1.029905983475407</v>
       </c>
       <c r="M21">
-        <v>0.9593243461440614</v>
+        <v>1.021889720943189</v>
       </c>
       <c r="N21">
-        <v>1.006974531023606</v>
+        <v>1.013720420255295</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9753492344050514</v>
+        <v>1.021780540628772</v>
       </c>
       <c r="D22">
-        <v>0.9996965938608551</v>
+        <v>1.028254992716773</v>
       </c>
       <c r="E22">
-        <v>0.9864119375157134</v>
+        <v>1.025680487801258</v>
       </c>
       <c r="F22">
-        <v>0.9371471107378054</v>
+        <v>1.017140775111957</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034514685898618</v>
+        <v>1.032983811934649</v>
       </c>
       <c r="J22">
-        <v>1.007210840944909</v>
+        <v>1.028718490880772</v>
       </c>
       <c r="K22">
-        <v>1.015274063683182</v>
+        <v>1.031994294768585</v>
       </c>
       <c r="L22">
-        <v>1.002257469551739</v>
+        <v>1.029429935204327</v>
       </c>
       <c r="M22">
-        <v>0.9540757271269941</v>
+        <v>1.020924284242312</v>
       </c>
       <c r="N22">
-        <v>1.006230958540856</v>
+        <v>1.013587984318667</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9773054029800446</v>
+        <v>1.022124383050627</v>
       </c>
       <c r="D23">
-        <v>1.00115848714549</v>
+        <v>1.028518511662381</v>
       </c>
       <c r="E23">
-        <v>0.9881252673575639</v>
+        <v>1.026003215330325</v>
       </c>
       <c r="F23">
-        <v>0.9403648963482599</v>
+        <v>1.017724698722992</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035232546683532</v>
+        <v>1.033080687550158</v>
       </c>
       <c r="J23">
-        <v>1.00838981345287</v>
+        <v>1.028928318063028</v>
       </c>
       <c r="K23">
-        <v>1.016394748785756</v>
+        <v>1.032187917874738</v>
       </c>
       <c r="L23">
-        <v>1.003617331228137</v>
+        <v>1.029682332527736</v>
       </c>
       <c r="M23">
-        <v>0.9568753230475332</v>
+        <v>1.021436154048236</v>
       </c>
       <c r="N23">
-        <v>1.006627269327991</v>
+        <v>1.013658218243617</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9847984208007705</v>
+        <v>1.023477906678137</v>
       </c>
       <c r="D24">
-        <v>1.006765623600169</v>
+        <v>1.029555594474846</v>
       </c>
       <c r="E24">
-        <v>0.9947018566514044</v>
+        <v>1.027274422629325</v>
       </c>
       <c r="F24">
-        <v>0.9526162887167761</v>
+        <v>1.020022957710225</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037957096377728</v>
+        <v>1.033458847161153</v>
       </c>
       <c r="J24">
-        <v>1.012894466968776</v>
+        <v>1.029752877659926</v>
       </c>
       <c r="K24">
-        <v>1.020674959973792</v>
+        <v>1.032948299857192</v>
       </c>
       <c r="L24">
-        <v>1.00882265687158</v>
+        <v>1.030675218518209</v>
       </c>
       <c r="M24">
-        <v>0.9675299531780304</v>
+        <v>1.023449737258</v>
       </c>
       <c r="N24">
-        <v>1.008141628099106</v>
+        <v>1.013934121027461</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9931004318304957</v>
+        <v>1.025048288293523</v>
       </c>
       <c r="D25">
-        <v>1.012990873085068</v>
+        <v>1.030758296145212</v>
       </c>
       <c r="E25">
-        <v>1.002014964573908</v>
+        <v>1.028750945949641</v>
       </c>
       <c r="F25">
-        <v>0.9660680745586905</v>
+        <v>1.022688950223602</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040923392572889</v>
+        <v>1.033890987487564</v>
       </c>
       <c r="J25">
-        <v>1.017862246080494</v>
+        <v>1.030706609271034</v>
       </c>
       <c r="K25">
-        <v>1.025390814967419</v>
+        <v>1.033826754827773</v>
       </c>
       <c r="L25">
-        <v>1.014582081135896</v>
+        <v>1.031825794451045</v>
       </c>
       <c r="M25">
-        <v>0.9792170161115556</v>
+        <v>1.025783262036998</v>
       </c>
       <c r="N25">
-        <v>1.009811729828654</v>
+        <v>1.014253044124094</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_210/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_210/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026300580174367</v>
+        <v>0.999438531707928</v>
       </c>
       <c r="D2">
-        <v>1.031716926897907</v>
+        <v>1.017751485845961</v>
       </c>
       <c r="E2">
-        <v>1.029929704889638</v>
+        <v>1.007617857528545</v>
       </c>
       <c r="F2">
-        <v>1.02481474348338</v>
+        <v>0.9762639705591954</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03423026287964</v>
+        <v>1.043144930748347</v>
       </c>
       <c r="J2">
-        <v>1.031464788390563</v>
+        <v>1.021636049174711</v>
       </c>
       <c r="K2">
-        <v>1.034524239319187</v>
+        <v>1.028968932046543</v>
       </c>
       <c r="L2">
-        <v>1.032742189863812</v>
+        <v>1.018972073966269</v>
       </c>
       <c r="M2">
-        <v>1.02764214054328</v>
+        <v>0.9880641990455634</v>
       </c>
       <c r="N2">
-        <v>1.01450641031337</v>
+        <v>1.011080289807192</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027209720616018</v>
+        <v>1.003890788470308</v>
       </c>
       <c r="D3">
-        <v>1.032412598999369</v>
+        <v>1.021099241172414</v>
       </c>
       <c r="E3">
-        <v>1.030786216798687</v>
+        <v>1.011564452697087</v>
       </c>
       <c r="F3">
-        <v>1.026358023263349</v>
+        <v>0.9833935923131274</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034473475219142</v>
+        <v>1.04467998367859</v>
       </c>
       <c r="J3">
-        <v>1.03201383797656</v>
+        <v>1.024275945717154</v>
       </c>
       <c r="K3">
-        <v>1.035028836042077</v>
+        <v>1.031469087475139</v>
       </c>
       <c r="L3">
-        <v>1.033406820359576</v>
+        <v>1.022051472005058</v>
       </c>
       <c r="M3">
-        <v>1.028990591554344</v>
+        <v>0.9942434593854752</v>
       </c>
       <c r="N3">
-        <v>1.014689793002341</v>
+        <v>1.011967519708338</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027797934551339</v>
+        <v>1.006706768878757</v>
       </c>
       <c r="D4">
-        <v>1.032862567600095</v>
+        <v>1.023218003618985</v>
       </c>
       <c r="E4">
-        <v>1.031340727116452</v>
+        <v>1.014065409094244</v>
       </c>
       <c r="F4">
-        <v>1.027356556255189</v>
+        <v>0.9878907886824357</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034629400442383</v>
+        <v>1.045638885537128</v>
       </c>
       <c r="J4">
-        <v>1.032368436995784</v>
+        <v>1.025940456943087</v>
       </c>
       <c r="K4">
-        <v>1.035354492521838</v>
+        <v>1.033044056559577</v>
       </c>
       <c r="L4">
-        <v>1.033836532024417</v>
+        <v>1.023996989954201</v>
       </c>
       <c r="M4">
-        <v>1.029862577667189</v>
+        <v>0.9981375922284017</v>
       </c>
       <c r="N4">
-        <v>1.014808183708705</v>
+        <v>1.012526831851955</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028045205094899</v>
+        <v>1.007875667016738</v>
       </c>
       <c r="D5">
-        <v>1.033051691250667</v>
+        <v>1.024097772247485</v>
       </c>
       <c r="E5">
-        <v>1.031573912240471</v>
+        <v>1.015104666660078</v>
       </c>
       <c r="F5">
-        <v>1.027776327152223</v>
+        <v>0.9897550236604364</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034694604259561</v>
+        <v>1.04603401153375</v>
       </c>
       <c r="J5">
-        <v>1.032517349293383</v>
+        <v>1.026630131801443</v>
       </c>
       <c r="K5">
-        <v>1.03549119445</v>
+        <v>1.033696270395766</v>
       </c>
       <c r="L5">
-        <v>1.034017099127604</v>
+        <v>1.024804029628998</v>
       </c>
       <c r="M5">
-        <v>1.030229032686768</v>
+        <v>0.9997509408240036</v>
       </c>
       <c r="N5">
-        <v>1.014857890408499</v>
+        <v>1.012758548434777</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028086722049632</v>
+        <v>1.008071070950437</v>
       </c>
       <c r="D6">
-        <v>1.033083443396179</v>
+        <v>1.024244857884953</v>
       </c>
       <c r="E6">
-        <v>1.031613069082482</v>
+        <v>1.015278463984696</v>
       </c>
       <c r="F6">
-        <v>1.027846807950149</v>
+        <v>0.9900665289803082</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034705531906078</v>
+        <v>1.046099892556323</v>
       </c>
       <c r="J6">
-        <v>1.032542342872658</v>
+        <v>1.026745350174897</v>
       </c>
       <c r="K6">
-        <v>1.035514135332167</v>
+        <v>1.033805208818185</v>
       </c>
       <c r="L6">
-        <v>1.03404741222581</v>
+        <v>1.024938909985582</v>
       </c>
       <c r="M6">
-        <v>1.030290554715623</v>
+        <v>1.000020470486916</v>
       </c>
       <c r="N6">
-        <v>1.01486623258268</v>
+        <v>1.012797257607003</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027801238649869</v>
+        <v>1.006722445684062</v>
       </c>
       <c r="D7">
-        <v>1.032865094849873</v>
+        <v>1.023229801676372</v>
       </c>
       <c r="E7">
-        <v>1.031343842676937</v>
+        <v>1.014079342803089</v>
       </c>
       <c r="F7">
-        <v>1.027362165296957</v>
+        <v>0.9879158005602112</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034630273063223</v>
+        <v>1.045644196350406</v>
       </c>
       <c r="J7">
-        <v>1.032370427402417</v>
+        <v>1.025949711567594</v>
       </c>
       <c r="K7">
-        <v>1.035356319941809</v>
+        <v>1.033052809946698</v>
       </c>
       <c r="L7">
-        <v>1.033838945099955</v>
+        <v>1.024007815790377</v>
       </c>
       <c r="M7">
-        <v>1.029867474754633</v>
+        <v>0.9981592416281313</v>
       </c>
       <c r="N7">
-        <v>1.014808848146597</v>
+        <v>1.012529941336505</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02660784098305</v>
+        <v>1.000957011627787</v>
       </c>
       <c r="D8">
-        <v>1.031952068996278</v>
+        <v>1.018892952470025</v>
       </c>
       <c r="E8">
-        <v>1.030219106846783</v>
+        <v>1.008962852486459</v>
       </c>
       <c r="F8">
-        <v>1.025336320026476</v>
+        <v>0.9786983959807188</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034312757650815</v>
+        <v>1.043670973555973</v>
       </c>
       <c r="J8">
-        <v>1.031650481533599</v>
+        <v>1.022537489388849</v>
       </c>
       <c r="K8">
-        <v>1.034694946275553</v>
+        <v>1.029822946406707</v>
       </c>
       <c r="L8">
-        <v>1.032966876936018</v>
+        <v>1.02002276965659</v>
       </c>
       <c r="M8">
-        <v>1.028097972656346</v>
+        <v>0.9901748571647553</v>
       </c>
       <c r="N8">
-        <v>1.014568441243381</v>
+        <v>1.011383270130164</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02450445856448</v>
+        <v>0.9902711790044213</v>
       </c>
       <c r="D9">
-        <v>1.03034186478378</v>
+        <v>1.010867952975958</v>
       </c>
       <c r="E9">
-        <v>1.028239415486766</v>
+        <v>0.9995195014346591</v>
       </c>
       <c r="F9">
-        <v>1.02176574847337</v>
+        <v>0.9614970036342526</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033742160415935</v>
+        <v>1.039919240885934</v>
       </c>
       <c r="J9">
-        <v>1.030376694558871</v>
+        <v>1.016172227324533</v>
       </c>
       <c r="K9">
-        <v>1.03352301127829</v>
+        <v>1.023787132165061</v>
       </c>
       <c r="L9">
-        <v>1.031427518869811</v>
+        <v>1.012620379206209</v>
       </c>
       <c r="M9">
-        <v>1.024975470274806</v>
+        <v>0.9752472634634048</v>
       </c>
       <c r="N9">
-        <v>1.014142747698579</v>
+        <v>1.009243578331064</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023101891385902</v>
+        <v>0.9827492054004836</v>
       </c>
       <c r="D10">
-        <v>1.029267529235544</v>
+        <v>1.005231030322588</v>
       </c>
       <c r="E10">
-        <v>1.026921145546334</v>
+        <v>0.9929010690675907</v>
       </c>
       <c r="F10">
-        <v>1.019384538325242</v>
+        <v>0.949276882142477</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033354310079525</v>
+        <v>1.037216136670276</v>
       </c>
       <c r="J10">
-        <v>1.029524041164258</v>
+        <v>1.011664379077831</v>
       </c>
       <c r="K10">
-        <v>1.032737355858804</v>
+        <v>1.019506474879288</v>
       </c>
       <c r="L10">
-        <v>1.030399498527726</v>
+        <v>1.007399690847419</v>
       </c>
       <c r="M10">
-        <v>1.022890571668311</v>
+        <v>0.9646266070161573</v>
       </c>
       <c r="N10">
-        <v>1.013857566590638</v>
+        <v>1.007728087969966</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022494489052901</v>
+        <v>0.9793867024800664</v>
       </c>
       <c r="D11">
-        <v>1.028802130752149</v>
+        <v>1.002714792655512</v>
       </c>
       <c r="E11">
-        <v>1.026350685096326</v>
+        <v>0.989949809027624</v>
       </c>
       <c r="F11">
-        <v>1.018353182203156</v>
+        <v>0.9437794071018628</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033184600079311</v>
+        <v>1.035993441246863</v>
       </c>
       <c r="J11">
-        <v>1.029154011060142</v>
+        <v>1.009642893124067</v>
       </c>
       <c r="K11">
-        <v>1.03239612473031</v>
+        <v>1.017585692923074</v>
       </c>
       <c r="L11">
-        <v>1.02995393278361</v>
+        <v>1.005063779074488</v>
       </c>
       <c r="M11">
-        <v>1.021986962411386</v>
+        <v>0.9598455946882385</v>
       </c>
       <c r="N11">
-        <v>1.013733751923973</v>
+        <v>1.00704850894368</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022268860320855</v>
+        <v>0.9781208424238337</v>
       </c>
       <c r="D12">
-        <v>1.028629230781779</v>
+        <v>1.001768128109783</v>
       </c>
       <c r="E12">
-        <v>1.026138844826081</v>
+        <v>0.9888399113565923</v>
       </c>
       <c r="F12">
-        <v>1.017970043064049</v>
+        <v>0.9417037786871686</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033121296584022</v>
+        <v>1.035531020882318</v>
       </c>
       <c r="J12">
-        <v>1.029016441229827</v>
+        <v>1.008880924842027</v>
       </c>
       <c r="K12">
-        <v>1.032269220532229</v>
+        <v>1.016861531793435</v>
       </c>
       <c r="L12">
-        <v>1.029788365788502</v>
+        <v>1.004184090513456</v>
       </c>
       <c r="M12">
-        <v>1.021651191188603</v>
+        <v>0.9580400753500422</v>
       </c>
       <c r="N12">
-        <v>1.013687712170366</v>
+        <v>1.006792361049873</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022317259017242</v>
+        <v>0.978393155088812</v>
       </c>
       <c r="D13">
-        <v>1.028666319774775</v>
+        <v>1.001971746692998</v>
       </c>
       <c r="E13">
-        <v>1.026184282830293</v>
+        <v>0.989078620907301</v>
       </c>
       <c r="F13">
-        <v>1.018052229958919</v>
+        <v>0.9421505754800337</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033134887419447</v>
+        <v>1.035630592260194</v>
       </c>
       <c r="J13">
-        <v>1.029045956046924</v>
+        <v>1.009044882940135</v>
       </c>
       <c r="K13">
-        <v>1.032296448961303</v>
+        <v>1.017017361088517</v>
       </c>
       <c r="L13">
-        <v>1.029823883369182</v>
+        <v>1.004373343095141</v>
       </c>
       <c r="M13">
-        <v>1.021723221244551</v>
+        <v>0.9584287457305507</v>
       </c>
       <c r="N13">
-        <v>1.013697590092449</v>
+        <v>1.006847477700627</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022475838767005</v>
+        <v>0.9792824167008507</v>
       </c>
       <c r="D14">
-        <v>1.028787839401436</v>
+        <v>1.002636790538163</v>
       </c>
       <c r="E14">
-        <v>1.026333173208009</v>
+        <v>0.9898583484562673</v>
       </c>
       <c r="F14">
-        <v>1.018321512807426</v>
+        <v>0.9436085373288712</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033179372811647</v>
+        <v>1.035955388377622</v>
       </c>
       <c r="J14">
-        <v>1.029142642029016</v>
+        <v>1.009580138960469</v>
       </c>
       <c r="K14">
-        <v>1.032385637966938</v>
+        <v>1.017526055409454</v>
       </c>
       <c r="L14">
-        <v>1.029940248270627</v>
+        <v>1.004991313439475</v>
       </c>
       <c r="M14">
-        <v>1.021959210149633</v>
+        <v>0.9596969685123349</v>
       </c>
       <c r="N14">
-        <v>1.013729947272775</v>
+        <v>1.007027412905385</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022573543326812</v>
+        <v>0.9798280512045984</v>
       </c>
       <c r="D15">
-        <v>1.028862707657605</v>
+        <v>1.003044931215273</v>
       </c>
       <c r="E15">
-        <v>1.026424916663282</v>
+        <v>0.9903369269484187</v>
       </c>
       <c r="F15">
-        <v>1.018487420375787</v>
+        <v>0.9445022959213941</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033206746529832</v>
+        <v>1.036154398970963</v>
       </c>
       <c r="J15">
-        <v>1.029202196994968</v>
+        <v>1.009908436778533</v>
       </c>
       <c r="K15">
-        <v>1.032440569618296</v>
+        <v>1.017838042480701</v>
       </c>
       <c r="L15">
-        <v>1.030011936040611</v>
+        <v>1.005370449275286</v>
       </c>
       <c r="M15">
-        <v>1.022104593254164</v>
+        <v>0.9604743629965148</v>
       </c>
       <c r="N15">
-        <v>1.013749877044022</v>
+        <v>1.00713777703408</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02314220094293</v>
+        <v>0.9829700558900263</v>
       </c>
       <c r="D16">
-        <v>1.029298411935327</v>
+        <v>1.005396378233993</v>
       </c>
       <c r="E16">
-        <v>1.026959012710122</v>
+        <v>0.9930950651046063</v>
       </c>
       <c r="F16">
-        <v>1.01945297969681</v>
+        <v>0.9496371692119661</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033365535919677</v>
+        <v>1.03729614836807</v>
       </c>
       <c r="J16">
-        <v>1.029548581437951</v>
+        <v>1.011797019007163</v>
       </c>
       <c r="K16">
-        <v>1.032759980398403</v>
+        <v>1.019632484738326</v>
       </c>
       <c r="L16">
-        <v>1.030429060279115</v>
+        <v>1.007553071537103</v>
       </c>
       <c r="M16">
-        <v>1.022950523219527</v>
+        <v>0.9649398806380464</v>
       </c>
       <c r="N16">
-        <v>1.013865776823838</v>
+        <v>1.007772679534226</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023498882872783</v>
+        <v>0.9849120212449269</v>
       </c>
       <c r="D17">
-        <v>1.029571663367648</v>
+        <v>1.006850719610633</v>
       </c>
       <c r="E17">
-        <v>1.027294133333068</v>
+        <v>0.9948017344818998</v>
       </c>
       <c r="F17">
-        <v>1.020058571299832</v>
+        <v>0.9528011789155163</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033464666910215</v>
+        <v>1.037998076071361</v>
       </c>
       <c r="J17">
-        <v>1.02976563812333</v>
+        <v>1.012962615491291</v>
       </c>
       <c r="K17">
-        <v>1.032960060709901</v>
+        <v>1.020739687743059</v>
       </c>
       <c r="L17">
-        <v>1.030690597192778</v>
+        <v>1.008901526183498</v>
       </c>
       <c r="M17">
-        <v>1.023480925714934</v>
+        <v>0.9676906797198591</v>
       </c>
       <c r="N17">
-        <v>1.013938389521027</v>
+        <v>1.008164538934106</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023706921560327</v>
+        <v>0.9860346382296501</v>
       </c>
       <c r="D18">
-        <v>1.029731026585086</v>
+        <v>1.007691786019387</v>
       </c>
       <c r="E18">
-        <v>1.027489638161862</v>
+        <v>0.9957890227079637</v>
       </c>
       <c r="F18">
-        <v>1.020411776371524</v>
+        <v>0.9546270030213503</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033522317729044</v>
+        <v>1.038402488464308</v>
       </c>
       <c r="J18">
-        <v>1.029892163971221</v>
+        <v>1.013635823772713</v>
       </c>
       <c r="K18">
-        <v>1.03307666409742</v>
+        <v>1.021379057048019</v>
       </c>
       <c r="L18">
-        <v>1.030843106133515</v>
+        <v>1.009680841156569</v>
       </c>
       <c r="M18">
-        <v>1.023790220355712</v>
+        <v>0.9692777604609577</v>
       </c>
       <c r="N18">
-        <v>1.013980711499313</v>
+        <v>1.008390865182142</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023777856052041</v>
+        <v>0.9864157386579856</v>
       </c>
       <c r="D19">
-        <v>1.029785361966393</v>
+        <v>1.007977362215931</v>
       </c>
       <c r="E19">
-        <v>1.027556306125847</v>
+        <v>0.9961242985354747</v>
       </c>
       <c r="F19">
-        <v>1.020532205901381</v>
+        <v>0.9552462982365093</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033541946229415</v>
+        <v>1.038539544640336</v>
       </c>
       <c r="J19">
-        <v>1.02993529251083</v>
+        <v>1.013864258688348</v>
       </c>
       <c r="K19">
-        <v>1.033116405863332</v>
+        <v>1.02159598975392</v>
       </c>
       <c r="L19">
-        <v>1.030895100767443</v>
+        <v>1.009945364019516</v>
       </c>
       <c r="M19">
-        <v>1.023895668395053</v>
+        <v>0.9698160250781902</v>
       </c>
       <c r="N19">
-        <v>1.013995136809525</v>
+        <v>1.008467662978006</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023460615090451</v>
+        <v>0.9847047184674019</v>
       </c>
       <c r="D20">
-        <v>1.029542348111634</v>
+        <v>1.006695434795519</v>
       </c>
       <c r="E20">
-        <v>1.027258174477418</v>
+        <v>0.9946194772063185</v>
       </c>
       <c r="F20">
-        <v>1.019993599811629</v>
+        <v>0.9524637654442285</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033454048740002</v>
+        <v>1.03792328693234</v>
       </c>
       <c r="J20">
-        <v>1.029742358234106</v>
+        <v>1.012838251840911</v>
       </c>
       <c r="K20">
-        <v>1.032938604336539</v>
+        <v>1.020621565952876</v>
       </c>
       <c r="L20">
-        <v>1.030662541009923</v>
+        <v>1.008757601053867</v>
       </c>
       <c r="M20">
-        <v>1.023424026874932</v>
+        <v>0.9673973617809245</v>
       </c>
       <c r="N20">
-        <v>1.01393060215281</v>
+        <v>1.00812272915848</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022429141328959</v>
+        <v>0.9790210259983113</v>
       </c>
       <c r="D21">
-        <v>1.02875205573201</v>
+        <v>1.002441289440703</v>
       </c>
       <c r="E21">
-        <v>1.026289327206773</v>
+        <v>0.989629122512151</v>
       </c>
       <c r="F21">
-        <v>1.018242217081481</v>
+        <v>0.9431801548931034</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033166280305414</v>
+        <v>1.035859975428814</v>
       </c>
       <c r="J21">
-        <v>1.029114173846117</v>
+        <v>1.009422831290805</v>
       </c>
       <c r="K21">
-        <v>1.032359378327175</v>
+        <v>1.017376557982881</v>
       </c>
       <c r="L21">
-        <v>1.029905983475407</v>
+        <v>1.004809674625845</v>
       </c>
       <c r="M21">
-        <v>1.021889720943189</v>
+        <v>0.959324346144062</v>
       </c>
       <c r="N21">
-        <v>1.013720420255295</v>
+        <v>1.006974531023606</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021780540628772</v>
+        <v>0.9753492344050499</v>
       </c>
       <c r="D22">
-        <v>1.028254992716773</v>
+        <v>0.9996965938608541</v>
       </c>
       <c r="E22">
-        <v>1.025680487801258</v>
+        <v>0.9864119375157121</v>
       </c>
       <c r="F22">
-        <v>1.017140775111957</v>
+        <v>0.9371471107378042</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032983811934649</v>
+        <v>1.034514685898618</v>
       </c>
       <c r="J22">
-        <v>1.028718490880772</v>
+        <v>1.007210840944908</v>
       </c>
       <c r="K22">
-        <v>1.031994294768585</v>
+        <v>1.015274063683181</v>
       </c>
       <c r="L22">
-        <v>1.029429935204327</v>
+        <v>1.002257469551738</v>
       </c>
       <c r="M22">
-        <v>1.020924284242312</v>
+        <v>0.954075727126993</v>
       </c>
       <c r="N22">
-        <v>1.013587984318667</v>
+        <v>1.006230958540856</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022124383050627</v>
+        <v>0.9773054029800439</v>
       </c>
       <c r="D23">
-        <v>1.028518511662381</v>
+        <v>1.00115848714549</v>
       </c>
       <c r="E23">
-        <v>1.026003215330325</v>
+        <v>0.9881252673575631</v>
       </c>
       <c r="F23">
-        <v>1.017724698722992</v>
+        <v>0.9403648963482593</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033080687550158</v>
+        <v>1.035232546683531</v>
       </c>
       <c r="J23">
-        <v>1.028928318063028</v>
+        <v>1.008389813452869</v>
       </c>
       <c r="K23">
-        <v>1.032187917874738</v>
+        <v>1.016394748785756</v>
       </c>
       <c r="L23">
-        <v>1.029682332527736</v>
+        <v>1.003617331228136</v>
       </c>
       <c r="M23">
-        <v>1.021436154048236</v>
+        <v>0.9568753230475326</v>
       </c>
       <c r="N23">
-        <v>1.013658218243617</v>
+        <v>1.006627269327991</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023477906678137</v>
+        <v>0.9847984208007706</v>
       </c>
       <c r="D24">
-        <v>1.029555594474846</v>
+        <v>1.006765623600169</v>
       </c>
       <c r="E24">
-        <v>1.027274422629325</v>
+        <v>0.9947018566514044</v>
       </c>
       <c r="F24">
-        <v>1.020022957710225</v>
+        <v>0.9526162887167757</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033458847161153</v>
+        <v>1.037957096377728</v>
       </c>
       <c r="J24">
-        <v>1.029752877659926</v>
+        <v>1.012894466968776</v>
       </c>
       <c r="K24">
-        <v>1.032948299857192</v>
+        <v>1.020674959973792</v>
       </c>
       <c r="L24">
-        <v>1.030675218518209</v>
+        <v>1.00882265687158</v>
       </c>
       <c r="M24">
-        <v>1.023449737258</v>
+        <v>0.9675299531780301</v>
       </c>
       <c r="N24">
-        <v>1.013934121027461</v>
+        <v>1.008141628099106</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025048288293523</v>
+        <v>0.993100431830495</v>
       </c>
       <c r="D25">
-        <v>1.030758296145212</v>
+        <v>1.012990873085067</v>
       </c>
       <c r="E25">
-        <v>1.028750945949641</v>
+        <v>1.002014964573907</v>
       </c>
       <c r="F25">
-        <v>1.022688950223602</v>
+        <v>0.96606807455869</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033890987487564</v>
+        <v>1.040923392572888</v>
       </c>
       <c r="J25">
-        <v>1.030706609271034</v>
+        <v>1.017862246080493</v>
       </c>
       <c r="K25">
-        <v>1.033826754827773</v>
+        <v>1.025390814967419</v>
       </c>
       <c r="L25">
-        <v>1.031825794451045</v>
+        <v>1.014582081135895</v>
       </c>
       <c r="M25">
-        <v>1.025783262036998</v>
+        <v>0.9792170161115553</v>
       </c>
       <c r="N25">
-        <v>1.014253044124094</v>
+        <v>1.009811729828654</v>
       </c>
     </row>
   </sheetData>
